--- a/cos/cos-spotlight-news.xlsx
+++ b/cos/cos-spotlight-news.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,16 +476,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>(2019) College of Sciences Students Among Top UTSA Scorers of Putnam Mathematical Competition</v>
+        <v>College of Sciences Students Among Top UTSA Scorers of Putnam Mathematical Competition</v>
       </c>
       <c r="B4" t="str">
         <v>2019</v>
       </c>
+      <c r="C4" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D4" t="str">
         <v>https://www.utsa.edu/sciences/blog/2019/PutnamCompetition.html</v>
       </c>
       <c r="E4" t="str">
-        <v>2019-college-of-sciences-students-among-top-utsa-scorers-of-putnam-mathematical-competition</v>
+        <v>college-of-sciences-students-among-top-utsa-scorers-of-putnam-mathematical-competition</v>
       </c>
       <c r="F4" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2019/1207putnam-competition.html</v>
@@ -502,19 +505,25 @@
       <c r="N4" t="str">
         <v>/spotlights/news/2019</v>
       </c>
+      <c r="O4" t="str">
+        <v>./spotlights/news/2019/college-of-sciences-students-among-top-utsa-scorers-of-putnam-mathematical-competition.html</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>(2020) UTSA Students Attend Snow Measurement Field School</v>
+        <v>UTSA Students Attend Snow Measurement Field School</v>
       </c>
       <c r="B5" t="str">
         <v>2020</v>
       </c>
+      <c r="C5" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D5" t="str">
         <v>https://www.utsa.edu/sciences/blog/2020/SnowSchool.html</v>
       </c>
       <c r="E5" t="str">
-        <v>2020-utsa-students-attend-snow-measurement-field-school</v>
+        <v>utsa-students-attend-snow-measurement-field-school</v>
       </c>
       <c r="F5" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2020/0113snow-school.html</v>
@@ -531,19 +540,25 @@
       <c r="N5" t="str">
         <v>/spotlights/news/2020</v>
       </c>
+      <c r="O5" t="str">
+        <v>./spotlights/news/2020/utsa-students-attend-snow-measurement-field-school.html</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>(2020) UTSA Hosts International Symposium on Metal Carbenes and Nitrenes</v>
+        <v>UTSA Hosts International Symposium on Metal Carbenes and Nitrenes</v>
       </c>
       <c r="B6" t="str">
         <v>2020</v>
       </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D6" t="str">
         <v>https://www.utsa.edu/sciences/blog/2020/ChemSymposium.html</v>
       </c>
       <c r="E6" t="str">
-        <v>2020-utsa-hosts-international-symposium-on-metal-carbenes-and-nitrenes</v>
+        <v>utsa-hosts-international-symposium-on-metal-carbenes-and-nitrenes</v>
       </c>
       <c r="F6" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2020/0210chem-symposium.html</v>
@@ -560,19 +575,25 @@
       <c r="N6" t="str">
         <v>/spotlights/news/2020</v>
       </c>
+      <c r="O6" t="str">
+        <v>./spotlights/news/2020/utsa-hosts-international-symposium-on-metal-carbenes-and-nitrenes.html</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>(2020) UTSA Hosts First Earth Symposium Online</v>
+        <v>UTSA Hosts First Earth Symposium Online</v>
       </c>
       <c r="B7" t="str">
         <v>2020</v>
       </c>
+      <c r="C7" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D7" t="str">
         <v>https://www.utsa.edu/sciences/blog/2020/EarthSymposium.html</v>
       </c>
       <c r="E7" t="str">
-        <v>2020-utsa-hosts-first-earth-symposium-online</v>
+        <v>utsa-hosts-first-earth-symposium-online</v>
       </c>
       <c r="F7" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2020/0907earth-symposium.html</v>
@@ -589,19 +610,25 @@
       <c r="N7" t="str">
         <v>/spotlights/news/2020</v>
       </c>
+      <c r="O7" t="str">
+        <v>./spotlights/news/2020/utsa-hosts-first-earth-symposium-online.html</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>(2021) COS Well Represented at the 2021 University Excellence Awards Ceremony</v>
+        <v>COS Well Represented at the 2021 University Excellence Awards Ceremony</v>
       </c>
       <c r="B8" t="str">
         <v>2021</v>
       </c>
+      <c r="C8" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D8" t="str">
         <v>https://www.utsa.edu/sciences/blog/2021/ExcellenceAwards.html</v>
       </c>
       <c r="E8" t="str">
-        <v>2021-cos-well-represented-at-the-2021-university-excellence-awards-ceremony</v>
+        <v>cos-well-represented-at-the-2021-university-excellence-awards-ceremony</v>
       </c>
       <c r="F8" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2021/0418excellence-awards.html</v>
@@ -618,19 +645,25 @@
       <c r="N8" t="str">
         <v>/spotlights/news/2021</v>
       </c>
+      <c r="O8" t="str">
+        <v>./spotlights/news/2021/cos-well-represented-at-the-2021-university-excellence-awards-ceremony.html</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>(2021) College of Sciences Consolidates Life Sciences Departments to Enhance Student Success</v>
+        <v>College of Sciences Consolidates Life Sciences Departments to Enhance Student Success</v>
       </c>
       <c r="B9" t="str">
         <v>2021</v>
       </c>
+      <c r="C9" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D9" t="str">
         <v xml:space="preserve">https://www.utsa.edu/sciences/blog/2021/departments.html </v>
       </c>
       <c r="E9" t="str">
-        <v>2021-college-of-sciences-consolidates-life-sciences-departments-to-enhance-student-success</v>
+        <v>college-of-sciences-consolidates-life-sciences-departments-to-enhance-student-success</v>
       </c>
       <c r="F9" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2021/0901departments.html</v>
@@ -647,19 +680,25 @@
       <c r="N9" t="str">
         <v>/spotlights/news/2021</v>
       </c>
+      <c r="O9" t="str">
+        <v>./spotlights/news/2021/college-of-sciences-consolidates-life-sciences-departments-to-enhance-student-success.html</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>(2021) COS Professor Partners with Digital Learning to Help Physics Students Become Adobe Fluent</v>
+        <v>COS Professor Partners with Digital Learning to Help Physics Students Become Adobe Fluent</v>
       </c>
       <c r="B10" t="str">
         <v>2021</v>
       </c>
+      <c r="C10" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D10" t="str">
         <v>https://www.utsa.edu/sciences/blog/2021/Adobe.html</v>
       </c>
       <c r="E10" t="str">
-        <v>2021-cos-professor-partners-with-digital-learning-to-help-physics-students-become-adobe-fluent</v>
+        <v>cos-professor-partners-with-digital-learning-to-help-physics-students-become-adobe-fluent</v>
       </c>
       <c r="F10" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2021/1115adobe.html</v>
@@ -676,19 +715,25 @@
       <c r="N10" t="str">
         <v>/spotlights/news/2021</v>
       </c>
+      <c r="O10" t="str">
+        <v>./spotlights/news/2021/cos-professor-partners-with-digital-learning-to-help-physics-students-become-adobe-fluent.html</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>(2022) Chemistry Professor Introduces Innovative Pedagogy by Utilizing Virtual Reality</v>
+        <v>Chemistry Professor Introduces Innovative Pedagogy by Utilizing Virtual Reality</v>
       </c>
       <c r="B11" t="str">
         <v>2022</v>
       </c>
+      <c r="C11" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D11" t="str">
         <v>https://www.utsa.edu/sciences/blog/2022/VR.html</v>
       </c>
       <c r="E11" t="str">
-        <v>2022-chemistry-professor-introduces-innovative-pedagogy-by-utilizing-virtual-reality</v>
+        <v>chemistry-professor-introduces-innovative-pedagogy-by-utilizing-virtual-reality</v>
       </c>
       <c r="F11" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2022/0509vr.html</v>
@@ -705,19 +750,25 @@
       <c r="N11" t="str">
         <v>/spotlights/news/2022</v>
       </c>
+      <c r="O11" t="str">
+        <v>./spotlights/news/2022/chemistry-professor-introduces-innovative-pedagogy-by-utilizing-virtual-reality.html</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>(2022) UTSA Hosts International Fuels Collaboration to Advance Nuclear Energy Research</v>
+        <v>UTSA Hosts International Fuels Collaboration to Advance Nuclear Energy Research</v>
       </c>
       <c r="B12" t="str">
         <v>2022</v>
       </c>
+      <c r="C12" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D12" t="str">
         <v>https://www.utsa.edu/sciences/blog/2022/HDF.html</v>
       </c>
       <c r="E12" t="str">
-        <v>2022-utsa-hosts-international-fuels-collaboration-to-advance-nuclear-energy-research</v>
+        <v>utsa-hosts-international-fuels-collaboration-to-advance-nuclear-energy-research</v>
       </c>
       <c r="F12" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2022/0712hdf.html</v>
@@ -734,19 +785,25 @@
       <c r="N12" t="str">
         <v>/spotlights/news/2022</v>
       </c>
+      <c r="O12" t="str">
+        <v>./spotlights/news/2022/utsa-hosts-international-fuels-collaboration-to-advance-nuclear-energy-research.html</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>(2022) UTSA Faculty to Collaborate on $650k NSF Research Grant to Discover Cost-Effective Method for Hydrogen Production</v>
+        <v>UTSA Faculty to Collaborate on $650k NSF Research Grant to Discover Cost-Effective Method for Hydrogen Production</v>
       </c>
       <c r="B13" t="str">
         <v>2022</v>
       </c>
+      <c r="C13" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D13" t="str">
         <v>https://www.utsa.edu/sciences/blog/2022/FangXu.html</v>
       </c>
       <c r="E13" t="str">
-        <v>2022-utsa-faculty-to-collaborate-on-$650k-nsf-research-grant-to-discover-cost-effective-method-for-hydrogen-production</v>
+        <v>utsa-faculty-to-collaborate-on-$650k-nsf-research-grant-to-discover-cost-effective-method-for-hydrogen-production</v>
       </c>
       <c r="F13" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2022/0811hydrogen.html</v>
@@ -763,19 +820,25 @@
       <c r="N13" t="str">
         <v>/spotlights/news/2022</v>
       </c>
+      <c r="O13" t="str">
+        <v>./spotlights/news/2022/utsa-faculty-to-collaborate-on-$650k-nsf-research-grant-to-discover-cost-effective-method-for-hydrogen-production.html</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>(2022) Outstanding New Faculty in the College of Sciences Advance UTSA’s Commitment to Student Success</v>
+        <v>Outstanding New Faculty in the College of Sciences Advance UTSA’s Commitment to Student Success</v>
       </c>
       <c r="B14" t="str">
         <v>2022</v>
       </c>
+      <c r="C14" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D14" t="str">
         <v>https://www.utsa.edu/sciences/blog/2022/faculty.html</v>
       </c>
       <c r="E14" t="str">
-        <v>2022-outstanding-new-faculty-in-the-college-of-sciences-advance-utsa's-commitment-to-student-success</v>
+        <v>outstanding-new-faculty-in-the-college-of-sciences-advance-utsa's-commitment-to-student-success</v>
       </c>
       <c r="F14" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2022/0815faculty.html</v>
@@ -792,19 +855,25 @@
       <c r="N14" t="str">
         <v>/spotlights/news/2022</v>
       </c>
+      <c r="O14" t="str">
+        <v>./spotlights/news/2022/outstanding-new-faculty-in-the-college-of-sciences-advance-utsa's-commitment-to-student-success.html</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>(2022) UTSA Hosts Several Partner Institutions from an Energy Research Center Funded by the DOE</v>
+        <v>UTSA Hosts Several Partner Institutions from an Energy Research Center Funded by the DOE</v>
       </c>
       <c r="B15" t="str">
         <v>2022</v>
       </c>
+      <c r="C15" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D15" t="str">
         <v>https://www.utsa.edu/sciences/blog/2022/FUTURE.html</v>
       </c>
       <c r="E15" t="str">
-        <v>2022-utsa-hosts-several-partner-institutions-from-an-energy-research-center-funded-by-the-doe</v>
+        <v>utsa-hosts-several-partner-institutions-from-an-energy-research-center-funded-by-the-doe</v>
       </c>
       <c r="F15" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2022/1115future.html</v>
@@ -821,19 +890,25 @@
       <c r="N15" t="str">
         <v>/spotlights/news/2022</v>
       </c>
+      <c r="O15" t="str">
+        <v>./spotlights/news/2022/utsa-hosts-several-partner-institutions-from-an-energy-research-center-funded-by-the-doe.html</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>(2022) 2022 Dean’s Fund for Excellence Awards</v>
+        <v>2022 Dean’s Fund for Excellence Awards</v>
       </c>
       <c r="B16" t="str">
         <v>2022</v>
       </c>
+      <c r="C16" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D16" t="str">
         <v>https://www.utsa.edu/sciences/blog/2022/dfea.html</v>
       </c>
       <c r="E16" t="str">
-        <v>2022-2022-dean's-fund-for-excellence-awards</v>
+        <v>2022-dean's-fund-for-excellence-awards</v>
       </c>
       <c r="F16" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2022/1130dfea.html</v>
@@ -850,19 +925,25 @@
       <c r="N16" t="str">
         <v>/spotlights/news/2022</v>
       </c>
+      <c r="O16" t="str">
+        <v>./spotlights/news/2022/2022-dean's-fund-for-excellence-awards.html</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve">(2023) UTSA College of Sciences Graduate Students Tour Local Early-Stage Cancer Diagnosis Firm bioAffinity Technologies </v>
+        <v xml:space="preserve">UTSA College of Sciences Graduate Students Tour Local Early-Stage Cancer Diagnosis Firm bioAffinity Technologies </v>
       </c>
       <c r="B17" t="str">
         <v>2023</v>
       </c>
+      <c r="C17" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D17" t="str">
         <v>https://www.utsa.edu/sciences/blog/2023/bioaffinity.html</v>
       </c>
       <c r="E17" t="str">
-        <v>2023-utsa-college-of-sciences-graduate-students-tour-local-early-stage-cancer-diagnosis-firm-bioaffinity-technologies</v>
+        <v>utsa-college-of-sciences-graduate-students-tour-local-early-stage-cancer-diagnosis-firm-bioaffinity-technologies</v>
       </c>
       <c r="F17" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2023/0424bioaffinity.html</v>
@@ -879,19 +960,25 @@
       <c r="N17" t="str">
         <v>/spotlights/news/2023</v>
       </c>
+      <c r="O17" t="str">
+        <v>./spotlights/news/2023/utsa-college-of-sciences-graduate-students-tour-local-early-stage-cancer-diagnosis-firm-bioaffinity-technologies.html</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>(2023) College of Sciences Well Represented at the 2023 University Excellence Awards</v>
+        <v>College of Sciences Well Represented at the 2023 University Excellence Awards</v>
       </c>
       <c r="B18" t="str">
         <v>2023</v>
       </c>
+      <c r="C18" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D18" t="str">
         <v>https://www.utsa.edu/sciences/blog/2023/excellence-awards.html</v>
       </c>
       <c r="E18" t="str">
-        <v>2023-college-of-sciences-well-represented-at-the-2023-university-excellence-awards</v>
+        <v>college-of-sciences-well-represented-at-the-2023-university-excellence-awards</v>
       </c>
       <c r="F18" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2023/0426excellence-awards.html</v>
@@ -908,19 +995,25 @@
       <c r="N18" t="str">
         <v>/spotlights/news/2023</v>
       </c>
+      <c r="O18" t="str">
+        <v>./spotlights/news/2023/college-of-sciences-well-represented-at-the-2023-university-excellence-awards.html</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>(2023) College of Sciences Announces Nominees for the Annual Staff Appreciation Awards Ceremony</v>
+        <v>College of Sciences Announces Nominees for the Annual Staff Appreciation Awards Ceremony</v>
       </c>
       <c r="B19" t="str">
         <v>2023</v>
       </c>
+      <c r="C19" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D19" t="str">
         <v>https://www.utsa.edu/sciences/blog/2023/staff-awards.html</v>
       </c>
       <c r="E19" t="str">
-        <v>2023-college-of-sciences-announces-nominees-for-the-annual-staff-appreciation-awards-ceremony</v>
+        <v>college-of-sciences-announces-nominees-for-the-annual-staff-appreciation-awards-ceremony</v>
       </c>
       <c r="F19" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2023/0512staff-awards.html</v>
@@ -937,19 +1030,25 @@
       <c r="N19" t="str">
         <v>/spotlights/news/2023</v>
       </c>
+      <c r="O19" t="str">
+        <v>./spotlights/news/2023/college-of-sciences-announces-nominees-for-the-annual-staff-appreciation-awards-ceremony.html</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>(2023) Chemistry doctoral student recognized for prestigious research award</v>
+        <v>Chemistry doctoral student recognized for prestigious research award</v>
       </c>
       <c r="B20" t="str">
         <v>2023</v>
       </c>
+      <c r="C20" t="str">
+        <v xml:space="preserve">February </v>
+      </c>
       <c r="D20" t="str">
         <v>https://www.utsa.edu/sciences/blog/2023/varela.html</v>
       </c>
       <c r="E20" t="str">
-        <v>2023-chemistry-doctoral-student-recognized-for-prestigious-research-award</v>
+        <v>chemistry-doctoral-student-recognized-for-prestigious-research-award</v>
       </c>
       <c r="F20" t="str">
         <v>https://sciences.utsa.edu/spotlight-news/2023/0602varela.html</v>
@@ -965,6 +1064,9 @@
       </c>
       <c r="N20" t="str">
         <v>/spotlights/news/2023</v>
+      </c>
+      <c r="O20" t="str">
+        <v>./spotlights/news/2023/chemistry-doctoral-student-recognized-for-prestigious-research-award.html</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1110,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O20"/>
   </ignoredErrors>
 </worksheet>
 </file>